--- a/Excel/30-04-2024.xlsx
+++ b/Excel/30-04-2024.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acviss\Desktop\Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F578B3CA-198E-4F80-9F61-D76223D714E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6D1F2FDE-90AB-4168-8C76-6F4745CF3652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8EBD78C3-BC84-4D44-850E-66D6F975E2AB}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23304" windowHeight="13224" xr2:uid="{8EBD78C3-BC84-4D44-850E-66D6F975E2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -826,11 +822,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888A73-B1B1-4739-9110-0C2161CE86E9}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
